--- a/Instruction_Data.xlsx
+++ b/Instruction_Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769881E9-4D0F-4C53-A6EC-48702B15D704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA02208-5374-494B-B2F2-AE25DF8DEA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="8445" windowWidth="28125" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Test Id</t>
   </si>
@@ -36,9 +37,6 @@
     <t>Test Name</t>
   </si>
   <si>
-    <t>Launch Activate</t>
-  </si>
-  <si>
     <t>Test Step</t>
   </si>
   <si>
@@ -48,9 +46,6 @@
     <t>Keyword</t>
   </si>
   <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
     <t>Open Browser</t>
   </si>
   <si>
@@ -87,20 +82,56 @@
     <t>Select_On_App</t>
   </si>
   <si>
+    <t>DrillDown</t>
+  </si>
+  <si>
+    <t>KPI_and_Grid_Data_Verify</t>
+  </si>
+  <si>
+    <t>TotalKPI Spend and Grid Spend Data Verify</t>
+  </si>
+  <si>
+    <t>Filter Select DeSelect</t>
+  </si>
+  <si>
     <t>Filter_Select_DeSelect</t>
   </si>
   <si>
-    <t>Filter Select DeSelect</t>
-  </si>
-  <si>
-    <t>Close_Browser</t>
+    <t>Filter Apply Button</t>
+  </si>
+  <si>
+    <t>Filter_Apply_Button</t>
+  </si>
+  <si>
+    <t>Filter Save Icon</t>
+  </si>
+  <si>
+    <t>Filter_Save_Icon</t>
+  </si>
+  <si>
+    <t>Filter Scope Typing New Name and Description</t>
+  </si>
+  <si>
+    <t>Filter_Scope_Typing_New_Name_and_Description</t>
+  </si>
+  <si>
+    <t>Filter_Scope_Save_And_Delete_This_Scope</t>
+  </si>
+  <si>
+    <t>Tactics_Export</t>
+  </si>
+  <si>
+    <t>Tactic_Add_Column</t>
+  </si>
+  <si>
+    <t>Add Column, DrillDown &amp; DrillBack, Save Filter and Delete Filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,9 +145,23 @@
       <name val="Cailbri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Cailbri"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,11 +187,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,157 +472,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CBEE08-9CB7-4BCF-9829-08FA90D0821B}">
+  <dimension ref="F4:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:7">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Instruction_Data.xlsx
+++ b/Instruction_Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA02208-5374-494B-B2F2-AE25DF8DEA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1E99A-750F-4BB6-95E8-CD670E334ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Drivers" sheetId="4" r:id="rId1"/>
+    <sheet name="Tactics" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Test Id</t>
   </si>
@@ -85,18 +86,6 @@
     <t>DrillDown</t>
   </si>
   <si>
-    <t>KPI_and_Grid_Data_Verify</t>
-  </si>
-  <si>
-    <t>TotalKPI Spend and Grid Spend Data Verify</t>
-  </si>
-  <si>
-    <t>Filter Select DeSelect</t>
-  </si>
-  <si>
-    <t>Filter_Select_DeSelect</t>
-  </si>
-  <si>
     <t>Filter Apply Button</t>
   </si>
   <si>
@@ -125,13 +114,40 @@
   </si>
   <si>
     <t>Add Column, DrillDown &amp; DrillBack, Save Filter and Delete Filter</t>
+  </si>
+  <si>
+    <t>Filter_Scope_Select_DeSelect</t>
+  </si>
+  <si>
+    <t>Driver_Filter_Scope_Select_DeSelect</t>
+  </si>
+  <si>
+    <t>Filter Scope Select DeSelect</t>
+  </si>
+  <si>
+    <t>Filter Scope Save and Delete This Scope</t>
+  </si>
+  <si>
+    <t>Add Column</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Drivers_Add_Column</t>
+  </si>
+  <si>
+    <t>Drivers_Export</t>
+  </si>
+  <si>
+    <t>Drivers_DrillDown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +179,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,13 +207,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,21 +500,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF966F3E-AAAE-4F67-A419-AF3A5230C645}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A16" sqref="A16:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -510,12 +538,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -528,7 +556,7 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -541,7 +569,7 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -554,7 +582,7 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -567,7 +595,7 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -575,12 +603,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -588,154 +616,415 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CBEE08-9CB7-4BCF-9829-08FA90D0821B}">
-  <dimension ref="F4:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C451EE-3FD0-4D3B-AFFD-995F0C73A5BA}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G8"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:7">
-      <c r="F4" t="s">
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="6:7">
-      <c r="F5" t="s">
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="6:7">
-      <c r="F6" t="s">
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="6:7">
-      <c r="F7" t="s">
+    <row r="15" spans="1:5" ht="18">
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC48-F702-48BF-84BC-8DF107393222}">
+  <dimension ref="P8:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="16" max="16" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="16:16" ht="18">
+      <c r="P8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="16:16" ht="18">
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="16:16" ht="18">
+      <c r="P10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="16:16" ht="18">
+      <c r="P11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="16:16" ht="18">
+      <c r="P12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="16:16" ht="18">
+      <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="16:16" ht="18">
+      <c r="P14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="16:16" ht="18">
+      <c r="P15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="16:16" ht="18">
+      <c r="P16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="16:16" ht="18">
+      <c r="P17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="16:16" ht="18">
+      <c r="P18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="16:16" ht="18">
+      <c r="P19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7">
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="20" spans="16:16" ht="18">
+      <c r="P20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="16:16" ht="18">
+      <c r="P21" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Instruction_Data.xlsx
+++ b/Instruction_Data.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1E99A-750F-4BB6-95E8-CD670E334ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B647323C-99C8-464A-BF8F-2592A4F7452C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Drivers" sheetId="4" r:id="rId1"/>
-    <sheet name="Tactics" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Trends" sheetId="7" r:id="rId1"/>
+    <sheet name="Optimize" sheetId="8" r:id="rId2"/>
+    <sheet name="Tactics" sheetId="5" r:id="rId3"/>
+    <sheet name="Drivers" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>Test Id</t>
   </si>
@@ -113,34 +115,124 @@
     <t>Tactic_Add_Column</t>
   </si>
   <si>
-    <t>Add Column, DrillDown &amp; DrillBack, Save Filter and Delete Filter</t>
-  </si>
-  <si>
-    <t>Filter_Scope_Select_DeSelect</t>
-  </si>
-  <si>
     <t>Driver_Filter_Scope_Select_DeSelect</t>
   </si>
   <si>
+    <t>Filter Scope Save and Delete This Scope</t>
+  </si>
+  <si>
+    <t>Drivers_Add_Column</t>
+  </si>
+  <si>
+    <t>Drivers_Export</t>
+  </si>
+  <si>
+    <t>Drivers_DrillDown</t>
+  </si>
+  <si>
+    <t>Drivers Module DrillDown</t>
+  </si>
+  <si>
+    <t>Drivers Module Filter Scope Select DeSelect</t>
+  </si>
+  <si>
+    <t>Drivers Module Add Column</t>
+  </si>
+  <si>
+    <t>Drivers Module Export</t>
+  </si>
+  <si>
+    <t>Navigate to Drivers Module - DrillDown, Save Filter and Delete Filter, Add Column, Export</t>
+  </si>
+  <si>
+    <t>Navigate to Tactics Module - DrillDown, Save Filter and Delete Filter, Add Column, Export</t>
+  </si>
+  <si>
+    <t>Tactics_DrillDown</t>
+  </si>
+  <si>
+    <t>Tactics_Filter_Scope_Select_DeSelect</t>
+  </si>
+  <si>
+    <t>Tactics Module DrillDown</t>
+  </si>
+  <si>
+    <t>Tactics Module Filter Scope Select DeSelect</t>
+  </si>
+  <si>
+    <t>Tactics Module Add Column</t>
+  </si>
+  <si>
+    <t>Tactics Module Export</t>
+  </si>
+  <si>
+    <t>Navigate to Trends Module - DrillDown, Save Filter and Delete Filter, Add Column, Export</t>
+  </si>
+  <si>
+    <t>Trends_DrillDown</t>
+  </si>
+  <si>
+    <t>Trends_Add_Column</t>
+  </si>
+  <si>
+    <t>Trends_Export</t>
+  </si>
+  <si>
+    <t>Trends_Filter_Scope_Select_DeSelect</t>
+  </si>
+  <si>
+    <t>Drivers_Filter_Scope_Select_DeSelect</t>
+  </si>
+  <si>
+    <t>Trends Module DrillDown</t>
+  </si>
+  <si>
+    <t>Trends Module Filter Scope Select DeSelect</t>
+  </si>
+  <si>
+    <t>Trends Module Add Column</t>
+  </si>
+  <si>
+    <t>Trends Module Export</t>
+  </si>
+  <si>
+    <t>Create a New Scenario</t>
+  </si>
+  <si>
+    <t>Simulation Job</t>
+  </si>
+  <si>
+    <t>Default Optimization Job</t>
+  </si>
+  <si>
+    <t>Adjust All by Percentage</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Add Column</t>
+  </si>
+  <si>
     <t>Filter Scope Select DeSelect</t>
   </si>
   <si>
-    <t>Filter Scope Save and Delete This Scope</t>
-  </si>
-  <si>
-    <t>Add Column</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>Drivers_Add_Column</t>
-  </si>
-  <si>
-    <t>Drivers_Export</t>
-  </si>
-  <si>
-    <t>Drivers_DrillDown</t>
+    <t>Default Save Scenario</t>
+  </si>
+  <si>
+    <t>Delete Scenario</t>
+  </si>
+  <si>
+    <t>Compare Scenario</t>
+  </si>
+  <si>
+    <t>Adjust All by Values</t>
+  </si>
+  <si>
+    <t>Create_A_New_Scenario</t>
+  </si>
+  <si>
+    <t>Default_Save_Scenario</t>
   </si>
 </sst>
 </file>
@@ -500,17 +592,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF966F3E-AAAE-4F67-A419-AF3A5230C645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD9C65-059F-4C7C-B5E3-657745CE1517}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD33"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
@@ -538,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -621,11 +713,11 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -634,11 +726,11 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
+      <c r="D9" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
@@ -648,10 +740,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
@@ -661,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
@@ -674,10 +766,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
@@ -687,10 +779,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
@@ -699,22 +791,22 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -723,17 +815,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C451EE-3FD0-4D3B-AFFD-995F0C73A5BA}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAC516C-D644-4379-935C-CBE484E33B4F}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
@@ -761,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -844,11 +936,11 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -857,88 +949,194 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
+      <c r="D9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="18">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="18">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3">
         <v>18</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="18">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="18">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="18">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="18">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,6 +1144,453 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C451EE-3FD0-4D3B-AFFD-995F0C73A5BA}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF966F3E-AAAE-4F67-A419-AF3A5230C645}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC48-F702-48BF-84BC-8DF107393222}">
   <dimension ref="P8:P21"/>
   <sheetViews>
@@ -990,7 +1635,7 @@
     </row>
     <row r="14" spans="16:16" ht="18">
       <c r="P14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="16:16" ht="18">

--- a/Instruction_Data.xlsx
+++ b/Instruction_Data.xlsx
@@ -1,45 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B647323C-99C8-464A-BF8F-2592A4F7452C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB64B8-8DB6-4342-8ECC-BF690636C2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trends" sheetId="7" r:id="rId1"/>
-    <sheet name="Optimize" sheetId="8" r:id="rId2"/>
-    <sheet name="Tactics" sheetId="5" r:id="rId3"/>
-    <sheet name="Drivers" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="LogIn" sheetId="13" r:id="rId1"/>
+    <sheet name="Report Module" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId3"/>
+    <sheet name="Optimize" sheetId="8" r:id="rId4"/>
+    <sheet name="Optimize-All-TC" sheetId="9" r:id="rId5"/>
+    <sheet name="Trends" sheetId="7" r:id="rId6"/>
+    <sheet name="Drivers" sheetId="4" r:id="rId7"/>
+    <sheet name="Tactics" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
-  <si>
-    <t>Test Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="104">
   <si>
     <t>TC_1</t>
   </si>
   <si>
-    <t>Test Name</t>
-  </si>
-  <si>
     <t>Test Step</t>
   </si>
   <si>
@@ -115,9 +124,6 @@
     <t>Tactic_Add_Column</t>
   </si>
   <si>
-    <t>Driver_Filter_Scope_Select_DeSelect</t>
-  </si>
-  <si>
     <t>Filter Scope Save and Delete This Scope</t>
   </si>
   <si>
@@ -196,9 +202,6 @@
     <t>Trends Module Export</t>
   </si>
   <si>
-    <t>Create a New Scenario</t>
-  </si>
-  <si>
     <t>Simulation Job</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
     <t>Filter Scope Select DeSelect</t>
   </si>
   <si>
-    <t>Default Save Scenario</t>
-  </si>
-  <si>
     <t>Delete Scenario</t>
   </si>
   <si>
@@ -233,13 +233,136 @@
   </si>
   <si>
     <t>Default_Save_Scenario</t>
+  </si>
+  <si>
+    <t>KPI_and_Grid_Data_Verify</t>
+  </si>
+  <si>
+    <t>Tactics Module KPI and Grid value verify</t>
+  </si>
+  <si>
+    <t>Drivers Module KPI and Grid value verify</t>
+  </si>
+  <si>
+    <t>KPI_and_Grid_Data_Verify_For_Drivers</t>
+  </si>
+  <si>
+    <t>KPI_and_Grid_Data_Verify_For_Trends</t>
+  </si>
+  <si>
+    <t>Trends_Module KPI and Grid value verify</t>
+  </si>
+  <si>
+    <t>Optimize_Filter_Scope_Select_DeSelect</t>
+  </si>
+  <si>
+    <t>Optimize_DrillDown</t>
+  </si>
+  <si>
+    <t>Optimize_Export</t>
+  </si>
+  <si>
+    <t>Optimize_Add_Column</t>
+  </si>
+  <si>
+    <t>Optimize_Open_Job_Notification_Panel</t>
+  </si>
+  <si>
+    <t>Optimize_View_Result_for_Complete_Job</t>
+  </si>
+  <si>
+    <t>Optimize_Job_Adapt_These_Changes</t>
+  </si>
+  <si>
+    <t>Optimize_Simulation_Job</t>
+  </si>
+  <si>
+    <t>Optimize_Flat_Opt_Job</t>
+  </si>
+  <si>
+    <t>Optimize_Spend_0_Opt_Job</t>
+  </si>
+  <si>
+    <t>Optimize_Spend_0_Simulation_Job</t>
+  </si>
+  <si>
+    <t>Optimize_Delete_Scenario</t>
+  </si>
+  <si>
+    <t>Optimize_Adjust_All_By_Pct_Simulation_Job</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Optimize_Adjust_All_By_Pct_Opt_Job</t>
+  </si>
+  <si>
+    <t>Optimize_Adjust_All_By_Values_Simulation_Job</t>
+  </si>
+  <si>
+    <t>Optimize_Adjust_All_By_Values_Opt_Job</t>
+  </si>
+  <si>
+    <t>Go_To_Optimize_Module</t>
+  </si>
+  <si>
+    <t>Optimize_Copy_Scenario</t>
+  </si>
+  <si>
+    <t>Optimize_Compare_Scenario</t>
+  </si>
+  <si>
+    <t>Optimize_Compare_Scenario_With_Export</t>
+  </si>
+  <si>
+    <t>Advance_Options_Min_Max_Pct_Value_Change</t>
+  </si>
+  <si>
+    <t>Optimize_Minimize_Budget_Opt_Job</t>
+  </si>
+  <si>
+    <t>Click On App</t>
+  </si>
+  <si>
+    <t>Navigate to Report Module - DrillDown, Save Filter and Delete Filter, Add Column, Export</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Navigate to Optimize Module - DrillDown, Save Filter and Delete Filter, Add Column, Export</t>
+  </si>
+  <si>
+    <t>TC Id</t>
+  </si>
+  <si>
+    <t>Go_To_Report_Module</t>
+  </si>
+  <si>
+    <t>https://activate.mma.com</t>
+  </si>
+  <si>
+    <t>prosenjit.ghosh@ipsos.com</t>
+  </si>
+  <si>
+    <t>0987@pros</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>Sperry</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,13 +401,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,10 +445,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -313,12 +463,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -592,12 +763,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD9C65-059F-4C7C-B5E3-657745CE1517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B4216D-E56D-41B2-8AC8-D411EE9EFD71}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="E9" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DF57625C-5305-4FFB-A429-A2FAC7B3500C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{C6A27605-CAB0-4070-8224-64C2E2D4D863}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{B6824DDE-1B82-4349-8812-8A989C0335B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11EF18E-4BDD-4E7E-A79B-0122BC95C999}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="E8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="E9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259E6309-A044-4EC8-BC50-E6A6FA62069F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAC516C-D644-4379-935C-CBE484E33B4F}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="E13" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="E14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="E15" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECF1CA5-1E32-4EA3-9D60-19D8E605B4D0}">
+  <dimension ref="A1:E94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -610,36 +1218,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -649,10 +1257,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -662,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -675,10 +1283,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -688,139 +1296,675 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18">
+      <c r="E59" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18">
+      <c r="E60" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18">
+      <c r="E61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18">
+      <c r="E62" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18">
+      <c r="E63" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18">
+      <c r="E64" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" ht="18">
+      <c r="E65" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="18">
+      <c r="E66" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" ht="18">
+      <c r="E67" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" ht="18">
+      <c r="E68" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" ht="18">
+      <c r="E69" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" ht="18">
+      <c r="E70" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" ht="18">
+      <c r="E71" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" ht="18">
+      <c r="E72" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" ht="18">
+      <c r="E73" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" ht="18">
+      <c r="E74" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" ht="18">
+      <c r="E75" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" ht="18">
+      <c r="E76" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" ht="18">
+      <c r="E77" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" ht="18">
+      <c r="E78" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" ht="18">
+      <c r="E79" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" ht="18">
+      <c r="E80" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" ht="18">
+      <c r="E81" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="18">
+      <c r="E82" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" ht="18">
+      <c r="E83" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" ht="18">
+      <c r="E84" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" ht="18">
+      <c r="E85" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" ht="18">
+      <c r="E86" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" ht="18">
+      <c r="E87" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" ht="18">
+      <c r="E88" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" ht="18">
+      <c r="E89" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" ht="18">
+      <c r="E90" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" ht="18">
+      <c r="E91" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" ht="18">
+      <c r="E92" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" ht="18">
+      <c r="E93" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" ht="18">
+      <c r="E94" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAC516C-D644-4379-935C-CBE484E33B4F}">
-  <dimension ref="A1:E28"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD9C65-059F-4C7C-B5E3-657745CE1517}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -833,36 +1977,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -872,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -885,10 +2029,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -898,10 +2042,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -911,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -924,10 +2068,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
@@ -937,10 +2081,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -949,430 +2093,123 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3">
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="18">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="18">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3">
-        <v>17</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="18">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="18">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="18">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="18">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="18">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="18">
-      <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C451EE-3FD0-4D3B-AFFD-995F0C73A5BA}">
-  <dimension ref="A1:E15"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF966F3E-AAAE-4F67-A419-AF3A5230C645}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF966F3E-AAAE-4F67-A419-AF3A5230C645}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1385,36 +2222,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -1424,10 +2261,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -1437,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -1450,10 +2287,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -1463,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -1476,10 +2313,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
@@ -1489,10 +2326,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -1501,11 +2338,11 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
@@ -1514,11 +2351,11 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
@@ -1528,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
@@ -1541,10 +2378,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
@@ -1554,10 +2391,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
@@ -1567,21 +2404,45 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>36</v>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="18">
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1590,12 +2451,257 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C451EE-3FD0-4D3B-AFFD-995F0C73A5BA}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="18">
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC48-F702-48BF-84BC-8DF107393222}">
-  <dimension ref="P8:P21"/>
+  <dimension ref="P8:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P21"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1603,75 +2709,128 @@
     <col min="16" max="16" width="65.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="16:16" ht="18">
-      <c r="P8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="16:16" ht="18">
-      <c r="P9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="16:16" ht="18">
-      <c r="P10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="16:16" ht="18">
-      <c r="P11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="16:16" ht="18">
-      <c r="P12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="16:16" ht="18">
-      <c r="P13" s="4" t="s">
+    <row r="8" spans="16:17" ht="18">
+      <c r="P8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="16:17" ht="18">
+      <c r="P9" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="16:16" ht="18">
-      <c r="P14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="16:16" ht="18">
-      <c r="P15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="16:16" ht="18">
-      <c r="P16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="16:16" ht="18">
-      <c r="P17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="16:16" ht="18">
-      <c r="P18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="16:16" ht="18">
-      <c r="P19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="16:16" ht="18">
-      <c r="P20" s="4" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="16:17" ht="18">
+      <c r="P10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="16:17" ht="18">
+      <c r="P11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="16:17" ht="18">
+      <c r="P12" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="16:16" ht="18">
-      <c r="P21" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="16:17" ht="18">
+      <c r="P13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="16:17" ht="18">
+      <c r="P14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="16:17" ht="18">
+      <c r="P15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="16:17" ht="18">
+      <c r="P16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="16:17" ht="18">
+      <c r="P17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="16:17" ht="18">
+      <c r="P18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17" ht="18">
+      <c r="P19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="16:17" ht="18">
+      <c r="P20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="16:17" ht="18">
+      <c r="P21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="16:17" ht="18">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="16:17" ht="18">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="16:17" ht="18">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="16:17" ht="18">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="16:17" ht="18">
+      <c r="P26" s="6"/>
+      <c r="Q26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
